--- a/excel/vgl1verf.xlsx
+++ b/excel/vgl1verf.xlsx
@@ -440,22 +440,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>38.33485713401011</v>
+        <v>17.84633360633794</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.005176820356589341</v>
+        <v>0.0200583946997923</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.001877989105791161</v>
+        <v>0.003077800259153413</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21.09202157625047</v>
+        <v>2.040290331058731</v>
       </c>
     </row>
     <row r="6">
@@ -465,17 +465,17 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.0121003385806428</v>
+        <v>-0.002280666243063504</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01157847240078668</v>
+        <v>0.02210093950420543</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.02456799126155118</v>
+        <v>0.01533486959408101</v>
       </c>
     </row>
     <row r="10">
@@ -485,17 +485,17 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1346922627910298</v>
+        <v>0.162180812931714</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.03696889167866788</v>
+        <v>0.0796666706395372</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.1061312926168452</v>
+        <v>0.02414681449151684</v>
       </c>
     </row>
     <row r="14">
@@ -505,187 +505,187 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.001190938443054174</v>
+        <v>0.004467412689352733</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.024409728950701</v>
+        <v>0.03093770700765482</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8431506658189275</v>
+        <v>0.4190393288675092</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.6085659027939374</v>
+        <v>0.2014143248666017</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.009679066552077727</v>
+        <v>0.01311988882761443</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.01196895474714267</v>
+        <v>0.01471303734791272</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.08909922256877</v>
+        <v>0.8109696034400715</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.03908240573719398</v>
+        <v>-0.01436481779346312</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.009344911177821531</v>
+        <v>0.01644009470248168</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.03523345306235115</v>
+        <v>0.04440725440033642</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.01110272759922588</v>
+        <v>0.008666764135529378</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.326043803893505</v>
+        <v>9.842059384590645</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.01000500237647815</v>
+        <v>0.03097225772103376</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.007120219480213999</v>
+        <v>0.01075895782041443</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.4354922019852664</v>
+        <v>-0.06862427741255561</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11.03329056810319</v>
+        <v>-2.926824643256858</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.952441152019036</v>
+        <v>1.819337851520864</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.008116804773021031</v>
+        <v>0.003350196244240556</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.076372404715766</v>
+        <v>18.12578416438276</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.0232621879206528</v>
+        <v>0.04052848012901074</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>69.96193169492489</v>
+        <v>60.25473804818395</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.0009637919234273219</v>
+        <v>-0.001251051614635735</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.001406734457645699</v>
+        <v>0.004646311905259766</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.005017771863644917</v>
+        <v>0.008739520329141437</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.008772098434275772</v>
+        <v>0.01214149847555158</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.009474627643674974</v>
+        <v>0.01229733805729698</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.00525731787947176</v>
+        <v>0.0336822182247907</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-0.057996728770478</v>
+        <v>-0.008011918677965676</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.0728346885586581</v>
+        <v>0.09990326763467067</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.01732873272882264</v>
+        <v>0.004482868673828636</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.009382910865915556</v>
+        <v>0.01516906108220692</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.005568699217970588</v>
+        <v>0.008631178525565259</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.01025933306450955</v>
+        <v>0.01671341934641472</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.006358868632773699</v>
+        <v>0.01055795189794924</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.001204273380777002</v>
+        <v>0.01107597348914836</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.01341904960668748</v>
+        <v>0.008170039647401416</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.009343769213394578</v>
+        <v>0.01408381451091133</v>
       </c>
     </row>
   </sheetData>
